--- a/pred_ohlcv/54_21/2019-10-31 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 ZRX ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>54710.77650000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>54079.51590000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>19303.87620000001</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>18236.14200000001</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>14598.36030000001</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>14808.25540000001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>14876.58050000001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>14876.58050000001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>29730.08360000001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>29730.08360000001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>58330.9801</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>58330.9801</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>58330.9801</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>58285.3239</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>58285.3239</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>58286.3239</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>58277.3239</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>58284.36778714734</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>58284.36778714734</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>61254.66738714734</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>61178.15998714734</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>61178.15998714734</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>58153.81158714733</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>74478.11148714733</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>75283.60398714732</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>77049.49508714731</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>262867.9459871473</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>262867.9459871473</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>216527.1992871473</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>216527.1992871473</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>217884.6527871474</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>218483.8583871473</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>218483.8583871473</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>218483.8583871473</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>218483.8583871473</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>211585.2944871473</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>211688.2944871473</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>211551.2944871473</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>211551.2944871473</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>209950.4600871473</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>209950.4600871473</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>209762.2584871473</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>204625.9967871473</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>173347.7842871473</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>176451.8446871473</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>175491.0508871473</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>174383.1196871473</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>174383.1196871473</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>174383.1196871473</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>232942.3129927548</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 ZRX ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>61289.45020000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>61228.8757</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>54710.77650000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>54079.51590000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>57667.3034</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>56079.13160000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>19299.87620000001</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>19303.87620000001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>18047.14200000001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>18236.14200000001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>14598.36030000001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>14607.32300000001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>15276.24620000001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>15655.24620000001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>15655.24620000001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>14759.40700000001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>14759.40700000001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>14759.40700000001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>14759.40700000001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>14759.40700000001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>14768.40700000001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>14814.93960000001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>14808.25540000001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>14876.58050000001</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>14876.58050000001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>29730.08360000001</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>29730.08360000001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>58330.9801</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>58330.9801</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>58330.9801</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>58285.3239</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>58285.3239</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>58286.3239</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>58277.3239</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>58284.36778714734</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>58284.36778714734</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>61254.66738714734</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>61178.15998714734</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>61178.15998714734</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>58153.81158714733</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>74588.34318714733</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>74478.11148714733</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>75283.60398714732</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>77049.49508714731</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>79641.84058714731</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>93154.82798714731</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>262867.9459871473</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>262867.9459871473</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>270094.7331871474</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>216527.1992871473</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>216527.1992871473</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>219733.3924871474</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>217884.6527871474</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>218483.8583871473</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>218483.8583871473</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>211585.2944871473</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>211688.2944871473</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>211551.2944871473</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>211551.2944871473</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>211301.2932871473</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>210249.6240871473</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>202792.6946871473</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>204625.9967871473</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>204625.9967871473</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>232942.3129927548</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
